--- a/team_specific_matrix/King (TN)_B.xlsx
+++ b/team_specific_matrix/King (TN)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.4152542372881356</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1031746031746032</v>
       </c>
     </row>
   </sheetData>
